--- a/ОТЧЁТЫ/ПРИБЫЛО ТОВАРОВ/прибыло-товаров-27.01.2025.xlsx
+++ b/ОТЧЁТЫ/ПРИБЫЛО ТОВАРОВ/прибыло-товаров-27.01.2025.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,7 +462,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>678320094</v>
+        <v>677942539</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -471,16 +471,16 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>AQ3000</t>
+          <t>MN3000</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Эпоксидная смола AquaGlass Citrus 3кг жидкая универсальная, для ювелирных заливок и рисования ResinArt, для столешниц, без пузырей</t>
+          <t>Эпоксидная смола для столешниц MONOLIT 3 кг (прозрачная, толстослойная, жидкая)</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>677926124</v>
+        <v>756835534</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -517,21 +517,21 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>MN1500</t>
+          <t>ED-20-TETA1</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Эпоксидная смола MONOLIT 1,5 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
+          <t>Эпоксидная смола ЭД-20 1 кг с отвердителем ТЭТА 100 гр</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>696778824</v>
+        <v>677926124</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -540,12 +540,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>EPO3D-750</t>
+          <t>MN1500</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (750 гр.), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+          <t>Эпоксидная смола MONOLIT 1,5 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -554,7 +554,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>735729922</v>
+        <v>678320094</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -563,21 +563,21 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>PEPA-500</t>
+          <t>AQ3000</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Отвердитель ПЭПА 500 гр. (для 5 кг смолы)</t>
+          <t>Эпоксидная смола AquaGlass Citrus 3кг жидкая универсальная, для ювелирных заливок и рисования ResinArt, для столешниц, без пузырей</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>678360471</v>
+        <v>696778824</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -586,12 +586,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>AQ1500</t>
+          <t>EPO3D-750</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Эпоксидная смола AquaGlass Citrus 1,5кг жидкая универсальная, ювелирная, без пузырей, для бижутерии и рисования ResinArt, для литья</t>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (750 гр.), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -600,7 +600,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>756839133</v>
+        <v>735729922</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -609,16 +609,85 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>TETA-500</t>
+          <t>PEPA-500</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Отвердитель ТЭТА 500 гр. (для 5 кг смолы)</t>
+          <t>Отвердитель ПЭПА 500 гр. (для 5 кг смолы)</t>
         </is>
       </c>
       <c r="E8" t="n">
         <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>678360471</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>СПБ_БУГРЫ_РФЦ</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>AQ1500</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Эпоксидная смола AquaGlass Citrus 1,5кг жидкая универсальная, ювелирная, без пузырей, для бижутерии и рисования ResinArt, для литья</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>756839133</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>СПБ_БУГРЫ_РФЦ</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>TETA-500</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Отвердитель ТЭТА 500 гр. (для 5 кг смолы)</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>677953003</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>СПБ_БУГРЫ_РФЦ</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>MN15000</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Эпоксидная смола для столешниц MONOLIT 15 кг (прозрачная, толстослойная, жидкая)</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
